--- a/LSTM/Manufacture.xlsx
+++ b/LSTM/Manufacture.xlsx
@@ -7,11 +7,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Manufacture!$A$1:$F$36</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9CFC7EDF_40EC_419B_A928_795636070478_.wvu.FilterData">Manufacture!$A$1:$F$36</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_897C142D_8426_4A48_B197_C32314663C63_.wvu.FilterData">Manufacture!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9CFC7EDF-40EC-419B-A928-795636070478}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{897C142D-8426-4A48-B197-C32314663C63}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1069,7 +1069,7 @@
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{9CFC7EDF-40EC-419B-A928-795636070478}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{897C142D-8426-4A48-B197-C32314663C63}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$36">
         <sortState ref="A1:F36">
           <sortCondition ref="A1:A36"/>
